--- a/data/vintage_data/data_20080207.xlsx
+++ b/data/vintage_data/data_20080207.xlsx
@@ -15533,9 +15533,7 @@
       <c r="V101" t="n">
         <v>-5.165114225121227</v>
       </c>
-      <c r="W101" t="n">
-        <v>5.0026</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -23138,16 +23136,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-45.31452744939145</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>4.9</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -30758,7 +30756,9 @@
       <c r="O101" t="n">
         <v>936.7058900627266</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-45.31452744939145</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30769,9 +30769,7 @@
       <c r="V101" t="n">
         <v>-5.165114225121227</v>
       </c>
-      <c r="W101" t="n">
-        <v>4.9</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20080207.xlsx
+++ b/data/vintage_data/data_20080207.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -554,9 +564,15 @@
         <v>11.37097102687478</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9826465201465213</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="Y2" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.1093845843957814</v>
       </c>
     </row>
@@ -628,9 +644,15 @@
         <v>9.962984094884133</v>
       </c>
       <c r="W3" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>-0.4773989922267964</v>
       </c>
     </row>
@@ -702,9 +724,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W4" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.36393804762512</v>
       </c>
     </row>
@@ -776,9 +804,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W5" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.01732229088889924</v>
       </c>
     </row>
@@ -850,9 +884,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W6" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.08343063070622474</v>
       </c>
     </row>
@@ -924,9 +964,15 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5564868449308705</v>
       </c>
     </row>
@@ -998,9 +1044,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W8" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.1694343171246335</v>
       </c>
     </row>
@@ -1072,9 +1124,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W9" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.09506374945694523</v>
       </c>
     </row>
@@ -1146,9 +1204,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W10" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.3</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -1220,9 +1284,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.2</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.9124024690188488</v>
       </c>
     </row>
@@ -1294,9 +1364,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.133348344720657</v>
       </c>
     </row>
@@ -1368,9 +1444,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W13" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -1442,9 +1524,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W14" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y14" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -1516,9 +1604,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W15" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.3333366313071911</v>
       </c>
     </row>
@@ -1590,9 +1684,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W16" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.9439262892774138</v>
       </c>
     </row>
@@ -1664,9 +1764,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W17" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.6129492621286926</v>
       </c>
     </row>
@@ -1738,9 +1844,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.4206201028720323</v>
       </c>
     </row>
@@ -1812,9 +1924,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y19" t="n">
         <v>6</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.2709575731191315</v>
       </c>
     </row>
@@ -1886,9 +2004,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.5561293773013484</v>
       </c>
     </row>
@@ -1960,9 +2084,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W21" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.7</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.7436192243044547</v>
       </c>
     </row>
@@ -2034,9 +2164,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W22" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.1473637910805308</v>
       </c>
     </row>
@@ -2108,9 +2244,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.03366332283268592</v>
       </c>
     </row>
@@ -2182,9 +2324,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W24" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.1885281455335454</v>
       </c>
     </row>
@@ -2256,9 +2404,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W25" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.2</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>-0.7141108389272802</v>
       </c>
     </row>
@@ -2330,9 +2484,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W26" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.7057937540935362</v>
       </c>
     </row>
@@ -2404,9 +2564,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W27" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.08528962727010808</v>
       </c>
     </row>
@@ -2478,9 +2644,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W28" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6407865204188099</v>
       </c>
     </row>
@@ -2552,9 +2724,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.3</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.6980022471371149</v>
       </c>
     </row>
@@ -2626,9 +2804,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W30" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.9572057288445777</v>
       </c>
     </row>
@@ -2700,9 +2884,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W31" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.7</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.6258123406180913</v>
       </c>
     </row>
@@ -2774,9 +2964,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W32" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.08197127953263786</v>
       </c>
     </row>
@@ -2848,9 +3044,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W33" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.356320096169326</v>
       </c>
     </row>
@@ -2922,9 +3124,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.212557133805251</v>
       </c>
     </row>
@@ -2996,9 +3204,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W35" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.3906237682868729</v>
       </c>
     </row>
@@ -3070,9 +3284,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.5824895546060745</v>
       </c>
     </row>
@@ -3144,9 +3364,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W37" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.218997019002549</v>
       </c>
     </row>
@@ -3218,9 +3444,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W38" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.2674684060404288</v>
       </c>
     </row>
@@ -3292,9 +3524,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W39" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>1.042622597753622</v>
       </c>
     </row>
@@ -3366,9 +3604,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W40" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1351075614966627</v>
       </c>
     </row>
@@ -3440,9 +3684,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W41" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.6035812975457825</v>
       </c>
     </row>
@@ -3514,9 +3764,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W42" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1846310382291398</v>
       </c>
     </row>
@@ -3588,9 +3844,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.8</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.032048100995509</v>
       </c>
     </row>
@@ -3662,9 +3924,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W44" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.1316797499563241</v>
       </c>
     </row>
@@ -3738,9 +4006,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W45" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.4955286709073031</v>
       </c>
     </row>
@@ -3814,9 +4088,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W46" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6.2</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.6242458962835756</v>
       </c>
     </row>
@@ -3890,9 +4170,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W47" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y47" t="n">
         <v>6</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>-0.6763413507269765</v>
       </c>
     </row>
@@ -3966,9 +4252,15 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.07522444915889011</v>
       </c>
     </row>
@@ -4042,9 +4334,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W49" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.1435924500951718</v>
       </c>
     </row>
@@ -4118,9 +4416,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.2164941797307438</v>
       </c>
     </row>
@@ -4194,9 +4498,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.1683118067980442</v>
       </c>
     </row>
@@ -4270,9 +4580,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W52" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.413025133188726</v>
       </c>
     </row>
@@ -4346,9 +4662,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W53" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.3830185726343333</v>
       </c>
     </row>
@@ -4422,9 +4744,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.5</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.62698715815751</v>
       </c>
     </row>
@@ -4498,9 +4826,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.2571555229753608</v>
       </c>
     </row>
@@ -4574,9 +4908,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W56" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.003519921773103742</v>
       </c>
     </row>
@@ -4650,9 +4990,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W57" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.07840541434377557</v>
       </c>
     </row>
@@ -4726,9 +5072,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y58" t="n">
         <v>5</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.4324696249736282</v>
       </c>
     </row>
@@ -4802,9 +5154,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.7004965498548033</v>
       </c>
     </row>
@@ -4878,9 +5236,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.390780880327856</v>
       </c>
     </row>
@@ -4954,9 +5318,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W61" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.6288484307196</v>
       </c>
     </row>
@@ -5030,9 +5400,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W62" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.179818183666782</v>
       </c>
     </row>
@@ -5106,9 +5482,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W63" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.261144412754581</v>
       </c>
     </row>
@@ -5182,9 +5564,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.2307771545786379</v>
       </c>
     </row>
@@ -5258,9 +5646,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.3</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.485587775348164</v>
       </c>
     </row>
@@ -5334,9 +5728,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W66" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-0.09334603647620511</v>
       </c>
     </row>
@@ -5410,9 +5810,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W67" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.5232794244632285</v>
       </c>
     </row>
@@ -5486,9 +5892,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W68" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>1.586290729548661</v>
       </c>
     </row>
@@ -5562,9 +5974,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W69" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>2.64613325876566</v>
       </c>
     </row>
@@ -5638,9 +6056,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W70" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y70" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>-0.2147010344461733</v>
       </c>
     </row>
@@ -5714,9 +6138,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W71" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>1.479638226362329</v>
       </c>
     </row>
@@ -5790,9 +6220,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W72" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y72" t="n">
         <v>3.9</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.1429516434903957</v>
       </c>
     </row>
@@ -5866,9 +6302,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W73" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.8156924287018176</v>
       </c>
     </row>
@@ -5942,9 +6384,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W74" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.1727635563391776</v>
       </c>
     </row>
@@ -6018,9 +6466,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W75" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y75" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.141071071215547</v>
       </c>
     </row>
@@ -6094,9 +6548,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W76" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.5</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.383679142383186</v>
       </c>
     </row>
@@ -6170,9 +6630,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W77" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.7</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.082047983616339</v>
       </c>
     </row>
@@ -6246,9 +6712,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W78" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.7019712353094697</v>
       </c>
     </row>
@@ -6322,9 +6794,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W79" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.0807118045234043</v>
       </c>
     </row>
@@ -6398,9 +6876,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W80" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>-0.5182551122501001</v>
       </c>
     </row>
@@ -6474,9 +6958,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W81" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.5626112747281281</v>
       </c>
     </row>
@@ -6550,9 +7040,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W82" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X82" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y82" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>1.300602926047756</v>
       </c>
     </row>
@@ -6626,9 +7122,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W83" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y83" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.8126057171807836</v>
       </c>
     </row>
@@ -6702,9 +7204,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W84" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.2535632164930992</v>
       </c>
     </row>
@@ -6778,9 +7286,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W85" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.7</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.9481511094962782</v>
       </c>
     </row>
@@ -6854,9 +7368,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W86" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.3615293126759812</v>
       </c>
     </row>
@@ -6930,9 +7450,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W87" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.6986662927035041</v>
       </c>
     </row>
@@ -7006,9 +7532,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W88" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.5196211409038324</v>
       </c>
     </row>
@@ -7082,9 +7614,15 @@
         <v>2.887431223545009</v>
       </c>
       <c r="W89" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.07685196648328421</v>
       </c>
     </row>
@@ -7158,9 +7696,15 @@
         <v>3.975997057717344</v>
       </c>
       <c r="W90" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y90" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.2666025258317664</v>
       </c>
     </row>
@@ -7234,9 +7778,15 @@
         <v>3.747602244410744</v>
       </c>
       <c r="W91" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y91" t="n">
         <v>5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.5411490258246554</v>
       </c>
     </row>
@@ -7310,9 +7860,15 @@
         <v>2.177967376498581</v>
       </c>
       <c r="W92" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.2110534623697979</v>
       </c>
     </row>
@@ -7386,9 +7942,15 @@
         <v>0.7938518495003513</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.7</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.8920575479549352</v>
       </c>
     </row>
@@ -7462,9 +8024,15 @@
         <v>-2.654136768086178</v>
       </c>
       <c r="W94" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.912389824441172</v>
       </c>
     </row>
@@ -7538,9 +8106,15 @@
         <v>-5.489222528343467</v>
       </c>
       <c r="W95" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.2604650997749344</v>
       </c>
     </row>
@@ -7614,9 +8188,15 @@
         <v>-4.21576043631306</v>
       </c>
       <c r="W96" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>2.45933403698316</v>
       </c>
     </row>
@@ -7690,9 +8270,15 @@
         <v>-3.964020557361168</v>
       </c>
       <c r="W97" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.5</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.3980377003143889</v>
       </c>
     </row>
@@ -7766,9 +8352,15 @@
         <v>-3.357558599948794</v>
       </c>
       <c r="W98" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-0.3969446032257284</v>
       </c>
     </row>
@@ -7842,9 +8434,15 @@
         <v>-5.806134843854087</v>
       </c>
       <c r="W99" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.7</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.7103022085768091</v>
       </c>
     </row>
@@ -7916,9 +8514,13 @@
         <v>-6.776386682590532</v>
       </c>
       <c r="W100" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.3289428937051083</v>
       </c>
     </row>
@@ -7933,7 +8535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8049,10 +8651,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8126,9 +8738,15 @@
         <v>11.37097102687478</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9826465201465213</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="Y2" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.1093845843957814</v>
       </c>
     </row>
@@ -8200,9 +8818,15 @@
         <v>9.962984094884133</v>
       </c>
       <c r="W3" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>-0.4773989922267964</v>
       </c>
     </row>
@@ -8274,9 +8898,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W4" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.36393804762512</v>
       </c>
     </row>
@@ -8348,9 +8978,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W5" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.01732229088889924</v>
       </c>
     </row>
@@ -8422,9 +9058,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W6" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.08343063070622474</v>
       </c>
     </row>
@@ -8496,9 +9138,15 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5564868449308705</v>
       </c>
     </row>
@@ -8570,9 +9218,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W8" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.1694343171246335</v>
       </c>
     </row>
@@ -8644,9 +9298,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W9" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.09506374945694523</v>
       </c>
     </row>
@@ -8718,9 +9378,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W10" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.3</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -8792,9 +9458,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.2</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.9124024690188488</v>
       </c>
     </row>
@@ -8866,9 +9538,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.133348344720657</v>
       </c>
     </row>
@@ -8940,9 +9618,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W13" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -9014,9 +9698,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W14" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y14" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -9088,9 +9778,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W15" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.3333366313071911</v>
       </c>
     </row>
@@ -9162,9 +9858,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W16" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.9439262892774138</v>
       </c>
     </row>
@@ -9236,9 +9938,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W17" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.6129492621286926</v>
       </c>
     </row>
@@ -9310,9 +10018,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.4206201028720323</v>
       </c>
     </row>
@@ -9384,9 +10098,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y19" t="n">
         <v>6</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.2709575731191315</v>
       </c>
     </row>
@@ -9458,9 +10178,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.5561293773013484</v>
       </c>
     </row>
@@ -9532,9 +10258,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W21" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.7</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.7436192243044547</v>
       </c>
     </row>
@@ -9606,9 +10338,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W22" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.1473637910805308</v>
       </c>
     </row>
@@ -9680,9 +10418,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.03366332283268592</v>
       </c>
     </row>
@@ -9754,9 +10498,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W24" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.1885281455335454</v>
       </c>
     </row>
@@ -9828,9 +10578,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W25" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.2</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>-0.7141108389272802</v>
       </c>
     </row>
@@ -9902,9 +10658,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W26" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.7057937540935362</v>
       </c>
     </row>
@@ -9976,9 +10738,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W27" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.08528962727010808</v>
       </c>
     </row>
@@ -10050,9 +10818,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W28" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6407865204188099</v>
       </c>
     </row>
@@ -10124,9 +10898,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.3</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.6980022471371149</v>
       </c>
     </row>
@@ -10198,9 +10978,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W30" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.9572057288445777</v>
       </c>
     </row>
@@ -10272,9 +11058,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W31" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.7</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.6258123406180913</v>
       </c>
     </row>
@@ -10346,9 +11138,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W32" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.08197127953263786</v>
       </c>
     </row>
@@ -10420,9 +11218,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W33" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.356320096169326</v>
       </c>
     </row>
@@ -10494,9 +11298,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.212557133805251</v>
       </c>
     </row>
@@ -10568,9 +11378,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W35" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.3906237682868729</v>
       </c>
     </row>
@@ -10642,9 +11458,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.5824895546060745</v>
       </c>
     </row>
@@ -10716,9 +11538,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W37" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.218997019002549</v>
       </c>
     </row>
@@ -10790,9 +11618,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W38" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.2674684060404288</v>
       </c>
     </row>
@@ -10864,9 +11698,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W39" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>1.042622597753622</v>
       </c>
     </row>
@@ -10938,9 +11778,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W40" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1351075614966627</v>
       </c>
     </row>
@@ -11012,9 +11858,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W41" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.6035812975457825</v>
       </c>
     </row>
@@ -11086,9 +11938,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W42" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1846310382291398</v>
       </c>
     </row>
@@ -11160,9 +12018,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.8</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.032048100995509</v>
       </c>
     </row>
@@ -11234,9 +12098,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W44" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.1316797499563241</v>
       </c>
     </row>
@@ -11310,9 +12180,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W45" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.4955286709073031</v>
       </c>
     </row>
@@ -11386,9 +12262,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W46" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6.2</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.6242458962835756</v>
       </c>
     </row>
@@ -11462,9 +12344,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W47" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y47" t="n">
         <v>6</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>-0.6763413507269765</v>
       </c>
     </row>
@@ -11538,9 +12426,15 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.07522444915889011</v>
       </c>
     </row>
@@ -11614,9 +12508,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W49" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.1435924500951718</v>
       </c>
     </row>
@@ -11690,9 +12590,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.2164941797307438</v>
       </c>
     </row>
@@ -11766,9 +12672,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.1683118067980442</v>
       </c>
     </row>
@@ -11842,9 +12754,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W52" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.413025133188726</v>
       </c>
     </row>
@@ -11918,9 +12836,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W53" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.3830185726343333</v>
       </c>
     </row>
@@ -11994,9 +12918,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.5</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.62698715815751</v>
       </c>
     </row>
@@ -12070,9 +13000,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.2571555229753608</v>
       </c>
     </row>
@@ -12146,9 +13082,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W56" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.003519921773103742</v>
       </c>
     </row>
@@ -12222,9 +13164,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W57" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.07840541434377557</v>
       </c>
     </row>
@@ -12298,9 +13246,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y58" t="n">
         <v>5</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.4324696249736282</v>
       </c>
     </row>
@@ -12374,9 +13328,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.7004965498548033</v>
       </c>
     </row>
@@ -12450,9 +13410,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.390780880327856</v>
       </c>
     </row>
@@ -12526,9 +13492,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W61" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.6288484307196</v>
       </c>
     </row>
@@ -12602,9 +13574,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W62" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.179818183666782</v>
       </c>
     </row>
@@ -12678,9 +13656,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W63" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.261144412754581</v>
       </c>
     </row>
@@ -12754,9 +13738,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.2307771545786379</v>
       </c>
     </row>
@@ -12830,9 +13820,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.3</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.485587775348164</v>
       </c>
     </row>
@@ -12906,9 +13902,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W66" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-0.09334603647620511</v>
       </c>
     </row>
@@ -12982,9 +13984,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W67" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.5232794244632285</v>
       </c>
     </row>
@@ -13058,9 +14066,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W68" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>1.586290729548661</v>
       </c>
     </row>
@@ -13134,9 +14148,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W69" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>2.64613325876566</v>
       </c>
     </row>
@@ -13210,9 +14230,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W70" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y70" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>-0.2147010344461733</v>
       </c>
     </row>
@@ -13286,9 +14312,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W71" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>1.479638226362329</v>
       </c>
     </row>
@@ -13362,9 +14394,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W72" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y72" t="n">
         <v>3.9</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.1429516434903957</v>
       </c>
     </row>
@@ -13438,9 +14476,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W73" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.8156924287018176</v>
       </c>
     </row>
@@ -13514,9 +14558,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W74" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.1727635563391776</v>
       </c>
     </row>
@@ -13590,9 +14640,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W75" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y75" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.141071071215547</v>
       </c>
     </row>
@@ -13666,9 +14722,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W76" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.5</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.383679142383186</v>
       </c>
     </row>
@@ -13742,9 +14804,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W77" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.7</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.082047983616339</v>
       </c>
     </row>
@@ -13818,9 +14886,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W78" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.7019712353094697</v>
       </c>
     </row>
@@ -13894,9 +14968,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W79" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.0807118045234043</v>
       </c>
     </row>
@@ -13970,9 +15050,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W80" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>-0.5182551122501001</v>
       </c>
     </row>
@@ -14046,9 +15132,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W81" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.5626112747281281</v>
       </c>
     </row>
@@ -14122,9 +15214,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W82" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X82" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y82" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>1.300602926047756</v>
       </c>
     </row>
@@ -14198,9 +15296,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W83" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y83" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.8126057171807836</v>
       </c>
     </row>
@@ -14274,9 +15378,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W84" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.2535632164930992</v>
       </c>
     </row>
@@ -14350,9 +15460,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W85" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.7</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.9481511094962782</v>
       </c>
     </row>
@@ -14426,9 +15542,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W86" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.3615293126759812</v>
       </c>
     </row>
@@ -14502,9 +15624,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W87" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.6986662927035041</v>
       </c>
     </row>
@@ -14578,9 +15706,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W88" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.5196211409038324</v>
       </c>
     </row>
@@ -14654,9 +15788,15 @@
         <v>2.887431223545009</v>
       </c>
       <c r="W89" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.07685196648328421</v>
       </c>
     </row>
@@ -14730,9 +15870,15 @@
         <v>3.975997057717344</v>
       </c>
       <c r="W90" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y90" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.2666025258317664</v>
       </c>
     </row>
@@ -14806,9 +15952,15 @@
         <v>3.747602244410744</v>
       </c>
       <c r="W91" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y91" t="n">
         <v>5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.5411490258246554</v>
       </c>
     </row>
@@ -14882,9 +16034,15 @@
         <v>2.177967376498581</v>
       </c>
       <c r="W92" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.2110534623697979</v>
       </c>
     </row>
@@ -14958,9 +16116,15 @@
         <v>0.7938518495003513</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.7</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.8920575479549352</v>
       </c>
     </row>
@@ -15034,9 +16198,15 @@
         <v>-2.654136768086178</v>
       </c>
       <c r="W94" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.912389824441172</v>
       </c>
     </row>
@@ -15110,9 +16280,15 @@
         <v>-5.489222528343467</v>
       </c>
       <c r="W95" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.2604650997749344</v>
       </c>
     </row>
@@ -15186,9 +16362,15 @@
         <v>-4.21576043631306</v>
       </c>
       <c r="W96" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>2.45933403698316</v>
       </c>
     </row>
@@ -15262,9 +16444,15 @@
         <v>-3.964020557361168</v>
       </c>
       <c r="W97" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.5</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.3980377003143889</v>
       </c>
     </row>
@@ -15338,9 +16526,15 @@
         <v>-3.357558599948794</v>
       </c>
       <c r="W98" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-0.3969446032257284</v>
       </c>
     </row>
@@ -15414,9 +16608,15 @@
         <v>-5.806134843854087</v>
       </c>
       <c r="W99" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.7</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.7103022085768091</v>
       </c>
     </row>
@@ -15488,9 +16688,13 @@
         <v>-6.776386682590532</v>
       </c>
       <c r="W100" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.3289428937051083</v>
       </c>
     </row>
@@ -15535,6 +16739,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15547,7 +16753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15663,10 +16869,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15740,9 +16956,15 @@
         <v>11.37097102687478</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9826465201465213</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="Y2" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.1093845843957814</v>
       </c>
     </row>
@@ -15814,9 +17036,15 @@
         <v>9.962984094884133</v>
       </c>
       <c r="W3" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>-0.4773989922267964</v>
       </c>
     </row>
@@ -15888,9 +17116,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W4" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.36393804762512</v>
       </c>
     </row>
@@ -15962,9 +17196,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W5" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.01732229088889924</v>
       </c>
     </row>
@@ -16036,9 +17276,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W6" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.08343063070622474</v>
       </c>
     </row>
@@ -16110,9 +17356,15 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5564868449308705</v>
       </c>
     </row>
@@ -16184,9 +17436,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W8" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.1694343171246335</v>
       </c>
     </row>
@@ -16258,9 +17516,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W9" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.09506374945694523</v>
       </c>
     </row>
@@ -16332,9 +17596,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W10" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.3</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -16406,9 +17676,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.2</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.9124024690188488</v>
       </c>
     </row>
@@ -16480,9 +17756,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.133348344720657</v>
       </c>
     </row>
@@ -16554,9 +17836,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W13" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -16628,9 +17916,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W14" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y14" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -16702,9 +17996,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W15" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.3333366313071911</v>
       </c>
     </row>
@@ -16776,9 +18076,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W16" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.9439262892774138</v>
       </c>
     </row>
@@ -16850,9 +18156,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W17" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.6129492621286926</v>
       </c>
     </row>
@@ -16924,9 +18236,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.4206201028720323</v>
       </c>
     </row>
@@ -16998,9 +18316,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y19" t="n">
         <v>6</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.2709575731191315</v>
       </c>
     </row>
@@ -17072,9 +18396,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.5561293773013484</v>
       </c>
     </row>
@@ -17146,9 +18476,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W21" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.7</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.7436192243044547</v>
       </c>
     </row>
@@ -17220,9 +18556,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W22" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.1473637910805308</v>
       </c>
     </row>
@@ -17294,9 +18636,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.03366332283268592</v>
       </c>
     </row>
@@ -17368,9 +18716,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W24" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.1885281455335454</v>
       </c>
     </row>
@@ -17442,9 +18796,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W25" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.2</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>-0.7141108389272802</v>
       </c>
     </row>
@@ -17516,9 +18876,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W26" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.7057937540935362</v>
       </c>
     </row>
@@ -17590,9 +18956,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W27" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.08528962727010808</v>
       </c>
     </row>
@@ -17664,9 +19036,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W28" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6407865204188099</v>
       </c>
     </row>
@@ -17738,9 +19116,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.3</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.6980022471371149</v>
       </c>
     </row>
@@ -17812,9 +19196,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W30" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.9572057288445777</v>
       </c>
     </row>
@@ -17886,9 +19276,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W31" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.7</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.6258123406180913</v>
       </c>
     </row>
@@ -17960,9 +19356,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W32" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.08197127953263786</v>
       </c>
     </row>
@@ -18034,9 +19436,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W33" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.356320096169326</v>
       </c>
     </row>
@@ -18108,9 +19516,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.212557133805251</v>
       </c>
     </row>
@@ -18182,9 +19596,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W35" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.3906237682868729</v>
       </c>
     </row>
@@ -18256,9 +19676,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.5824895546060745</v>
       </c>
     </row>
@@ -18330,9 +19756,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W37" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.218997019002549</v>
       </c>
     </row>
@@ -18404,9 +19836,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W38" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.2674684060404288</v>
       </c>
     </row>
@@ -18478,9 +19916,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W39" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>1.042622597753622</v>
       </c>
     </row>
@@ -18552,9 +19996,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W40" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1351075614966627</v>
       </c>
     </row>
@@ -18626,9 +20076,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W41" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.6035812975457825</v>
       </c>
     </row>
@@ -18700,9 +20156,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W42" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1846310382291398</v>
       </c>
     </row>
@@ -18774,9 +20236,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.8</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.032048100995509</v>
       </c>
     </row>
@@ -18848,9 +20316,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W44" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.1316797499563241</v>
       </c>
     </row>
@@ -18924,9 +20398,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W45" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.4955286709073031</v>
       </c>
     </row>
@@ -19000,9 +20480,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W46" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6.2</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.6242458962835756</v>
       </c>
     </row>
@@ -19076,9 +20562,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W47" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y47" t="n">
         <v>6</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>-0.6763413507269765</v>
       </c>
     </row>
@@ -19152,9 +20644,15 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.07522444915889011</v>
       </c>
     </row>
@@ -19228,9 +20726,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W49" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.1435924500951718</v>
       </c>
     </row>
@@ -19304,9 +20808,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.2164941797307438</v>
       </c>
     </row>
@@ -19380,9 +20890,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.1683118067980442</v>
       </c>
     </row>
@@ -19456,9 +20972,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W52" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.413025133188726</v>
       </c>
     </row>
@@ -19532,9 +21054,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W53" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.3830185726343333</v>
       </c>
     </row>
@@ -19608,9 +21136,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.5</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.62698715815751</v>
       </c>
     </row>
@@ -19684,9 +21218,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.2571555229753608</v>
       </c>
     </row>
@@ -19760,9 +21300,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W56" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.003519921773103742</v>
       </c>
     </row>
@@ -19836,9 +21382,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W57" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.07840541434377557</v>
       </c>
     </row>
@@ -19912,9 +21464,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y58" t="n">
         <v>5</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.4324696249736282</v>
       </c>
     </row>
@@ -19988,9 +21546,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.7004965498548033</v>
       </c>
     </row>
@@ -20064,9 +21628,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.390780880327856</v>
       </c>
     </row>
@@ -20140,9 +21710,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W61" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.6288484307196</v>
       </c>
     </row>
@@ -20216,9 +21792,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W62" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.179818183666782</v>
       </c>
     </row>
@@ -20292,9 +21874,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W63" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.261144412754581</v>
       </c>
     </row>
@@ -20368,9 +21956,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.2307771545786379</v>
       </c>
     </row>
@@ -20444,9 +22038,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.3</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.485587775348164</v>
       </c>
     </row>
@@ -20520,9 +22120,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W66" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-0.09334603647620511</v>
       </c>
     </row>
@@ -20596,9 +22202,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W67" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.5232794244632285</v>
       </c>
     </row>
@@ -20672,9 +22284,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W68" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>1.586290729548661</v>
       </c>
     </row>
@@ -20748,9 +22366,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W69" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>2.64613325876566</v>
       </c>
     </row>
@@ -20824,9 +22448,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W70" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y70" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>-0.2147010344461733</v>
       </c>
     </row>
@@ -20900,9 +22530,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W71" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>1.479638226362329</v>
       </c>
     </row>
@@ -20976,9 +22612,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W72" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y72" t="n">
         <v>3.9</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.1429516434903957</v>
       </c>
     </row>
@@ -21052,9 +22694,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W73" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.8156924287018176</v>
       </c>
     </row>
@@ -21128,9 +22776,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W74" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.1727635563391776</v>
       </c>
     </row>
@@ -21204,9 +22858,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W75" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y75" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.141071071215547</v>
       </c>
     </row>
@@ -21280,9 +22940,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W76" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.5</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.383679142383186</v>
       </c>
     </row>
@@ -21356,9 +23022,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W77" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.7</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.082047983616339</v>
       </c>
     </row>
@@ -21432,9 +23104,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W78" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.7019712353094697</v>
       </c>
     </row>
@@ -21508,9 +23186,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W79" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.0807118045234043</v>
       </c>
     </row>
@@ -21584,9 +23268,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W80" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>-0.5182551122501001</v>
       </c>
     </row>
@@ -21660,9 +23350,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W81" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.5626112747281281</v>
       </c>
     </row>
@@ -21736,9 +23432,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W82" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X82" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y82" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>1.300602926047756</v>
       </c>
     </row>
@@ -21812,9 +23514,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W83" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y83" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.8126057171807836</v>
       </c>
     </row>
@@ -21888,9 +23596,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W84" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.2535632164930992</v>
       </c>
     </row>
@@ -21964,9 +23678,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W85" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.7</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.9481511094962782</v>
       </c>
     </row>
@@ -22040,9 +23760,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W86" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.3615293126759812</v>
       </c>
     </row>
@@ -22116,9 +23842,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W87" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.6986662927035041</v>
       </c>
     </row>
@@ -22192,9 +23924,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W88" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.5196211409038324</v>
       </c>
     </row>
@@ -22268,9 +24006,15 @@
         <v>2.887431223545009</v>
       </c>
       <c r="W89" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.07685196648328421</v>
       </c>
     </row>
@@ -22344,9 +24088,15 @@
         <v>3.975997057717344</v>
       </c>
       <c r="W90" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y90" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.2666025258317664</v>
       </c>
     </row>
@@ -22420,9 +24170,15 @@
         <v>3.747602244410744</v>
       </c>
       <c r="W91" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y91" t="n">
         <v>5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.5411490258246554</v>
       </c>
     </row>
@@ -22496,9 +24252,15 @@
         <v>2.177967376498581</v>
       </c>
       <c r="W92" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.2110534623697979</v>
       </c>
     </row>
@@ -22572,9 +24334,15 @@
         <v>0.7938518495003513</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.7</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.8920575479549352</v>
       </c>
     </row>
@@ -22648,9 +24416,15 @@
         <v>-2.654136768086178</v>
       </c>
       <c r="W94" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.912389824441172</v>
       </c>
     </row>
@@ -22724,9 +24498,15 @@
         <v>-5.489222528343467</v>
       </c>
       <c r="W95" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.2604650997749344</v>
       </c>
     </row>
@@ -22800,9 +24580,15 @@
         <v>-4.21576043631306</v>
       </c>
       <c r="W96" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>2.45933403698316</v>
       </c>
     </row>
@@ -22876,9 +24662,15 @@
         <v>-3.964020557361168</v>
       </c>
       <c r="W97" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.5</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.3980377003143889</v>
       </c>
     </row>
@@ -22952,9 +24744,15 @@
         <v>-3.357558599948794</v>
       </c>
       <c r="W98" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-0.3969446032257284</v>
       </c>
     </row>
@@ -23028,9 +24826,15 @@
         <v>-5.806134843854087</v>
       </c>
       <c r="W99" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.7</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.7103022085768091</v>
       </c>
     </row>
@@ -23102,9 +24906,13 @@
         <v>-6.776386682590532</v>
       </c>
       <c r="W100" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.3289428937051083</v>
       </c>
     </row>
@@ -23136,9 +24944,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-45.31452744939145</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -23147,6 +24953,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -23159,7 +24967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23275,10 +25083,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23352,9 +25170,15 @@
         <v>11.37097102687478</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9826465201465213</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="Y2" t="n">
         <v>10.13333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.1093845843957814</v>
       </c>
     </row>
@@ -23426,9 +25250,15 @@
         <v>9.962984094884133</v>
       </c>
       <c r="W3" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>-0.4773989922267964</v>
       </c>
     </row>
@@ -23500,9 +25330,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W4" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.36393804762512</v>
       </c>
     </row>
@@ -23574,9 +25410,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W5" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.01732229088889924</v>
       </c>
     </row>
@@ -23648,9 +25490,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W6" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.08343063070622474</v>
       </c>
     </row>
@@ -23722,9 +25570,15 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5564868449308705</v>
       </c>
     </row>
@@ -23796,9 +25650,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W8" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.1694343171246335</v>
       </c>
     </row>
@@ -23870,9 +25730,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W9" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.09506374945694523</v>
       </c>
     </row>
@@ -23944,9 +25810,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W10" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.3</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -24018,9 +25890,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.2</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.9124024690188488</v>
       </c>
     </row>
@@ -24092,9 +25970,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.133348344720657</v>
       </c>
     </row>
@@ -24166,9 +26050,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W13" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -24240,9 +26130,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W14" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y14" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -24314,9 +26210,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W15" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.3333366313071911</v>
       </c>
     </row>
@@ -24388,9 +26290,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W16" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.9439262892774138</v>
       </c>
     </row>
@@ -24462,9 +26370,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W17" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.6129492621286926</v>
       </c>
     </row>
@@ -24536,9 +26450,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.4206201028720323</v>
       </c>
     </row>
@@ -24610,9 +26530,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y19" t="n">
         <v>6</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.2709575731191315</v>
       </c>
     </row>
@@ -24684,9 +26610,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.5561293773013484</v>
       </c>
     </row>
@@ -24758,9 +26690,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W21" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.7</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.7436192243044547</v>
       </c>
     </row>
@@ -24832,9 +26770,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W22" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.1473637910805308</v>
       </c>
     </row>
@@ -24906,9 +26850,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.03366332283268592</v>
       </c>
     </row>
@@ -24980,9 +26930,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W24" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.1885281455335454</v>
       </c>
     </row>
@@ -25054,9 +27010,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W25" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.2</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>-0.7141108389272802</v>
       </c>
     </row>
@@ -25128,9 +27090,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W26" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.7057937540935362</v>
       </c>
     </row>
@@ -25202,9 +27170,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W27" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.08528962727010808</v>
       </c>
     </row>
@@ -25276,9 +27250,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W28" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6407865204188099</v>
       </c>
     </row>
@@ -25350,9 +27330,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.3</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.6980022471371149</v>
       </c>
     </row>
@@ -25424,9 +27410,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W30" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.9572057288445777</v>
       </c>
     </row>
@@ -25498,9 +27490,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W31" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.7</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.6258123406180913</v>
       </c>
     </row>
@@ -25572,9 +27570,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W32" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.08197127953263786</v>
       </c>
     </row>
@@ -25646,9 +27650,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W33" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.356320096169326</v>
       </c>
     </row>
@@ -25720,9 +27730,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.212557133805251</v>
       </c>
     </row>
@@ -25794,9 +27810,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W35" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.3906237682868729</v>
       </c>
     </row>
@@ -25868,9 +27890,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.5824895546060745</v>
       </c>
     </row>
@@ -25942,9 +27970,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W37" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>1.218997019002549</v>
       </c>
     </row>
@@ -26016,9 +28050,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W38" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.2674684060404288</v>
       </c>
     </row>
@@ -26090,9 +28130,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W39" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>1.042622597753622</v>
       </c>
     </row>
@@ -26164,9 +28210,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W40" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1351075614966627</v>
       </c>
     </row>
@@ -26238,9 +28290,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W41" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.6035812975457825</v>
       </c>
     </row>
@@ -26312,9 +28370,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W42" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y42" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1846310382291398</v>
       </c>
     </row>
@@ -26386,9 +28450,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.8</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.032048100995509</v>
       </c>
     </row>
@@ -26460,9 +28530,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W44" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.1316797499563241</v>
       </c>
     </row>
@@ -26536,9 +28612,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W45" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.4955286709073031</v>
       </c>
     </row>
@@ -26612,9 +28694,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W46" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6.2</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.6242458962835756</v>
       </c>
     </row>
@@ -26688,9 +28776,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W47" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y47" t="n">
         <v>6</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>-0.6763413507269765</v>
       </c>
     </row>
@@ -26764,9 +28858,15 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.07522444915889011</v>
       </c>
     </row>
@@ -26840,9 +28940,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W49" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.1435924500951718</v>
       </c>
     </row>
@@ -26916,9 +29022,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.2164941797307438</v>
       </c>
     </row>
@@ -26992,9 +29104,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.1683118067980442</v>
       </c>
     </row>
@@ -27068,9 +29186,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W52" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.413025133188726</v>
       </c>
     </row>
@@ -27144,9 +29268,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W53" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.3830185726343333</v>
       </c>
     </row>
@@ -27220,9 +29350,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.5</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.62698715815751</v>
       </c>
     </row>
@@ -27296,9 +29432,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.2571555229753608</v>
       </c>
     </row>
@@ -27372,9 +29514,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W56" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.003519921773103742</v>
       </c>
     </row>
@@ -27448,9 +29596,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W57" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.07840541434377557</v>
       </c>
     </row>
@@ -27524,9 +29678,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y58" t="n">
         <v>5</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.4324696249736282</v>
       </c>
     </row>
@@ -27600,9 +29760,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.7004965498548033</v>
       </c>
     </row>
@@ -27676,9 +29842,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.390780880327856</v>
       </c>
     </row>
@@ -27752,9 +29924,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W61" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.6288484307196</v>
       </c>
     </row>
@@ -27828,9 +30006,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W62" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.179818183666782</v>
       </c>
     </row>
@@ -27904,9 +30088,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W63" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.261144412754581</v>
       </c>
     </row>
@@ -27980,9 +30170,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>0.2307771545786379</v>
       </c>
     </row>
@@ -28056,9 +30252,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W65" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.3</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.485587775348164</v>
       </c>
     </row>
@@ -28132,9 +30334,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W66" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-0.09334603647620511</v>
       </c>
     </row>
@@ -28208,9 +30416,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W67" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.5232794244632285</v>
       </c>
     </row>
@@ -28284,9 +30498,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W68" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>1.586290729548661</v>
       </c>
     </row>
@@ -28360,9 +30580,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W69" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>2.64613325876566</v>
       </c>
     </row>
@@ -28436,9 +30662,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W70" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y70" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>-0.2147010344461733</v>
       </c>
     </row>
@@ -28512,9 +30744,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W71" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y71" t="n">
         <v>4</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>1.479638226362329</v>
       </c>
     </row>
@@ -28588,9 +30826,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W72" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y72" t="n">
         <v>3.9</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.1429516434903957</v>
       </c>
     </row>
@@ -28664,9 +30908,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W73" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.8156924287018176</v>
       </c>
     </row>
@@ -28740,9 +30990,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W74" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.1727635563391776</v>
       </c>
     </row>
@@ -28816,9 +31072,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W75" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y75" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.141071071215547</v>
       </c>
     </row>
@@ -28892,9 +31154,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W76" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.5</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.383679142383186</v>
       </c>
     </row>
@@ -28968,9 +31236,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W77" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.7</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.082047983616339</v>
       </c>
     </row>
@@ -29044,9 +31318,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W78" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.7019712353094697</v>
       </c>
     </row>
@@ -29120,9 +31400,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W79" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.0807118045234043</v>
       </c>
     </row>
@@ -29196,9 +31482,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W80" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>-0.5182551122501001</v>
       </c>
     </row>
@@ -29272,9 +31564,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W81" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.5626112747281281</v>
       </c>
     </row>
@@ -29348,9 +31646,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W82" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X82" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y82" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>1.300602926047756</v>
       </c>
     </row>
@@ -29424,9 +31728,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W83" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y83" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.8126057171807836</v>
       </c>
     </row>
@@ -29500,9 +31810,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W84" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.2535632164930992</v>
       </c>
     </row>
@@ -29576,9 +31892,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W85" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.7</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.9481511094962782</v>
       </c>
     </row>
@@ -29652,9 +31974,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W86" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.3615293126759812</v>
       </c>
     </row>
@@ -29728,9 +32056,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W87" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.6986662927035041</v>
       </c>
     </row>
@@ -29804,9 +32138,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W88" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.5196211409038324</v>
       </c>
     </row>
@@ -29880,9 +32220,15 @@
         <v>2.887431223545009</v>
       </c>
       <c r="W89" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.07685196648328421</v>
       </c>
     </row>
@@ -29956,9 +32302,15 @@
         <v>3.975997057717344</v>
       </c>
       <c r="W90" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y90" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.2666025258317664</v>
       </c>
     </row>
@@ -30032,9 +32384,15 @@
         <v>3.747602244410744</v>
       </c>
       <c r="W91" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y91" t="n">
         <v>5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.5411490258246554</v>
       </c>
     </row>
@@ -30108,9 +32466,15 @@
         <v>2.177967376498581</v>
       </c>
       <c r="W92" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.2110534623697979</v>
       </c>
     </row>
@@ -30184,9 +32548,15 @@
         <v>0.7938518495003513</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.7</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.8920575479549352</v>
       </c>
     </row>
@@ -30260,9 +32630,15 @@
         <v>-2.654136768086178</v>
       </c>
       <c r="W94" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.912389824441172</v>
       </c>
     </row>
@@ -30336,9 +32712,15 @@
         <v>-5.489222528343467</v>
       </c>
       <c r="W95" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.2604650997749344</v>
       </c>
     </row>
@@ -30412,9 +32794,15 @@
         <v>-4.21576043631306</v>
       </c>
       <c r="W96" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>2.45933403698316</v>
       </c>
     </row>
@@ -30488,9 +32876,15 @@
         <v>-3.964020557361168</v>
       </c>
       <c r="W97" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.5</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.3980377003143889</v>
       </c>
     </row>
@@ -30564,9 +32958,15 @@
         <v>-3.357558599948794</v>
       </c>
       <c r="W98" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-0.3969446032257284</v>
       </c>
     </row>
@@ -30640,9 +33040,15 @@
         <v>-5.806134843854087</v>
       </c>
       <c r="W99" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.7</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.7103022085768091</v>
       </c>
     </row>
@@ -30714,9 +33120,13 @@
         <v>-6.776386682590532</v>
       </c>
       <c r="W100" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.3289428937051083</v>
       </c>
     </row>
@@ -30756,9 +33166,7 @@
       <c r="O101" t="n">
         <v>936.7058900627266</v>
       </c>
-      <c r="P101" t="n">
-        <v>-45.31452744939145</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30771,6 +33179,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20080207.xlsx
+++ b/data/vintage_data/data_20080207.xlsx
@@ -16739,7 +16739,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>5.0026</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -33179,7 +33181,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>5.0026</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
